--- a/src/assets/Template Excel/Layout_Machine_Extruding.xlsx
+++ b/src/assets/Template Excel/Layout_Machine_Extruding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TABLE SRI\NEW 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SRI Projek\SRI FE\Terbaru 23-11-2024\sri_monthly_planning_fe\src\assets\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1FC2EC-5C93-44D2-A908-A3E2411F4137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602B2981-1108-40F5-8FE8-F5AE366E403F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MACHINE EXTRUDING DATA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ID_MACHINE_EXT</t>
   </si>
@@ -30,12 +30,15 @@
   <si>
     <t>TYPE</t>
   </si>
+  <si>
+    <t>NO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -48,8 +51,23 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -59,6 +77,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -90,10 +114,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,57 +456,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
+    <col min="2" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/Template Excel/Layout_Machine_Extruding.xlsx
+++ b/src/assets/Template Excel/Layout_Machine_Extruding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SRI Projek\SRI FE\Terbaru 23-11-2024\sri_monthly_planning_fe\src\assets\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602B2981-1108-40F5-8FE8-F5AE366E403F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F09A184-65E3-470A-AFC6-A46C1F016F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MACHINE EXTRUDING DATA" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,13 @@
     <t>ID_MACHINE_EXT</t>
   </si>
   <si>
-    <t>BUILDING_ID</t>
-  </si>
-  <si>
     <t>TYPE</t>
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>BUILDING_NAME</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,16 +469,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
